--- a/artigos, livros referencia/Cursos/cont.xlsx
+++ b/artigos, livros referencia/Cursos/cont.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="41">
   <si>
     <t>PODE SER ENSINADO COM GALILEU?</t>
   </si>
@@ -116,13 +116,34 @@
   </si>
   <si>
     <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>CONTEÚDOS CALTECH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolução de equações diferenciais não-lineares, Transformada rápida de Fourier, EDO </t>
+  </si>
+  <si>
+    <t>vetorização, scripts e funções, arquivos de entrada e saída, arrays, estruturas, strings</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de programas em Matlab</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de programas em Python</t>
+  </si>
+  <si>
+    <t>CONTEÚDOS UNB</t>
+  </si>
+  <si>
+    <t>Noções de programação estruturada e orientada a objeto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +279,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -440,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -570,6 +607,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -615,12 +661,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -965,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,9 +1035,15 @@
     <col min="2" max="2" width="16.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" customWidth="1"/>
+    <col min="11" max="11" width="19.296875" customWidth="1"/>
+    <col min="12" max="12" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -992,8 +1056,9 @@
       <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1006,8 +1071,26 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1020,8 +1103,26 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1034,8 +1135,26 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1167,26 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1062,8 +1199,26 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1231,26 @@
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="69.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1090,8 +1263,26 @@
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1295,26 @@
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1118,8 +1327,26 @@
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1132,8 +1359,26 @@
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1146,8 +1391,26 @@
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1161,7 +1424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1175,7 +1438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1189,7 +1452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
